--- a/Excel/TaskPositionConfig.xlsx
+++ b/Excel/TaskPositionConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E65DEBD-8A9C-4E52-B4B6-64A9B3908DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38293999-F943-45AE-A624-46C0660B6D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskPositionProto" sheetId="2" r:id="rId1"/>
@@ -930,7 +930,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -942,9 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,25 +956,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1353,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD96984F-D113-4CBD-BE6F-14E7202889AA}">
-  <dimension ref="A3:H141"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1367,8 +1355,10 @@
     <col min="7" max="7" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C3" s="17" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
         <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1384,25 +1374,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1418,2820 +1408,2879 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5">
         <v>100001</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>10001</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5">
         <v>100002</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>10001</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5">
         <v>100003</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>10001</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5">
         <v>100004</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>10001</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5">
         <v>100005</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>10001</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="5">
         <v>100006</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>10001</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="5">
         <v>100007</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>10001</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5">
         <v>100008</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>10001</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="5">
         <v>100009</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>10001</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5">
         <v>100010</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>10001</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5">
         <v>100101</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>10002</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5">
         <v>100102</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>10002</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5">
         <v>100103</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>10002</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5">
         <v>100104</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>10002</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5">
         <v>100105</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>10002</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5">
         <v>100106</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>10002</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5">
         <v>100201</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>10003</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5">
         <v>100202</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>10003</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="5">
         <v>100203</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>10003</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5">
         <v>100204</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>10003</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>100205</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>10003</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>100301</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>10004</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C28" s="10">
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="8">
         <v>100302</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>10004</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C29" s="10">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="8">
         <v>100303</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>10004</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C30" s="10">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="8">
         <v>100304</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>10004</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C31" s="10">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="8">
         <v>100305</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>10004</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C32" s="10">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="8">
         <v>100401</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>10005</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="10">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="8">
         <v>100402</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>10005</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="G33" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="10">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="8">
         <v>100403</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>10005</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="12" t="s">
+      <c r="G34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="10">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="8">
         <v>100404</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>10005</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>100501</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>10006</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" s="12" t="s">
+      <c r="G36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="10">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="8">
         <v>100502</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>10006</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="G37" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="10">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="8">
         <v>100503</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>10006</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H38" s="12" t="s">
+      <c r="G38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C39" s="10">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="8">
         <v>100504</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>10006</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="10">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="8">
         <v>100505</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>10006</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="G40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="10">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="8">
         <v>100601</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <v>10007</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="G41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C42" s="10">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C42" s="8">
         <v>100602</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <v>10007</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="10">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="8">
         <v>100603</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <v>10007</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="13" t="s">
+      <c r="G43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C44" s="10">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="8">
         <v>100604</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <v>10007</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H44" s="13" t="s">
+      <c r="G44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C45" s="10">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="8">
         <v>100701</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <v>10008</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H45" s="13" t="s">
+      <c r="G45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="10">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C46" s="8">
         <v>100702</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>10008</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H46" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C47" s="10">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C47" s="8">
         <v>100703</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <v>10008</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="13" t="s">
+      <c r="G47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C48" s="10">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C48" s="8">
         <v>100704</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <v>10008</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="13" t="s">
+      <c r="G48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C49" s="10">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C49" s="8">
         <v>100705</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <v>10008</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="13" t="s">
+      <c r="G49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="5">
         <v>200001</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>20001</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="12" t="s">
+      <c r="G50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="5">
         <v>200002</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>20001</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G51" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="12" t="s">
+      <c r="G51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="5">
         <v>200003</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>20001</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="12" t="s">
+      <c r="G52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="5">
         <v>200004</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>20001</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="12" t="s">
+      <c r="G53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="5">
         <v>200101</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>20002</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="12" t="s">
+      <c r="G54" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H54" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="5">
         <v>200102</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>20002</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="G55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="5">
         <v>200103</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>20002</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="12" t="s">
+      <c r="G56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="5">
         <v>200104</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>20002</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="12" t="s">
+      <c r="G57" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="5">
         <v>200201</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>20003</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="5">
         <v>200202</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>20003</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="12" t="s">
+      <c r="G59" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H59" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C60" s="5">
         <v>200203</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>20003</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G60" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="12" t="s">
+      <c r="G60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C61" s="5">
         <v>200204</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>20003</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C62" s="5">
         <v>200205</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>20003</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="12" t="s">
+      <c r="G62" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="5">
         <v>200301</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>20004</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H63" s="12" t="s">
+      <c r="G63" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C64" s="5">
         <v>200302</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>20004</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H64" s="12" t="s">
+      <c r="G64" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="5">
         <v>200303</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>20004</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="12" t="s">
+      <c r="G65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C66" s="5">
         <v>200304</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>20004</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="12" t="s">
+      <c r="G66" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H66" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C67" s="5">
         <v>200401</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>20005</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H67" s="12" t="s">
+      <c r="G67" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C68" s="5">
         <v>200402</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>20005</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H68" s="12" t="s">
+      <c r="G68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H68" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="5">
         <v>300101</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>30001</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" s="12" t="s">
+      <c r="G69" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="5">
         <v>300102</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>30001</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H70" s="12" t="s">
+      <c r="G70" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H70" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="5">
         <v>300103</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>30001</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="12" t="s">
+      <c r="G71" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="5">
         <v>300104</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>30001</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="G72" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="5">
         <v>300201</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>30002</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H73" s="12" t="s">
+      <c r="G73" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H73" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="5">
         <v>300202</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>30002</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G74" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5">
         <v>300203</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>30002</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H75" s="12" t="s">
+      <c r="G75" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5">
         <v>300204</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>30002</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="10" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="5">
         <v>300301</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>30003</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G77" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H77" s="12" t="s">
+      <c r="G77" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H77" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="5">
         <v>300302</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>30003</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H78" s="12" t="s">
+      <c r="G78" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H78" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="5">
         <v>300303</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>30003</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G79" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H79" s="12" t="s">
+      <c r="G79" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H79" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="5">
         <v>300304</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>30003</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="15" t="s">
+      <c r="G80" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H80" s="12" t="s">
+      <c r="H80" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="5">
         <v>300401</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>30004</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H81" s="12" t="s">
+      <c r="G81" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5">
         <v>300402</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>30004</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G82" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H82" s="12" t="s">
+      <c r="G82" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="5">
         <v>300403</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>30004</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H83" s="12" t="s">
+      <c r="G83" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="5">
         <v>300404</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>30004</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="15" t="s">
+      <c r="G84" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="5">
         <v>300501</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>30005</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G85" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H85" s="12" t="s">
+      <c r="G85" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="5">
         <v>300502</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>30005</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H86" s="12" t="s">
+      <c r="G86" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H86" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C87" s="5">
         <v>300503</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>30005</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H87" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="5">
         <v>300504</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>30005</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H88" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="5">
         <v>300505</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>30005</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="15" t="s">
+      <c r="G89" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C90" s="11">
+    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="9">
         <v>300601</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>30006</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H90" s="12" t="s">
+      <c r="G90" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C91" s="11">
+    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="9">
         <v>300602</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>30006</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H91" s="12" t="s">
+      <c r="G91" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C92" s="11">
+    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="9">
         <v>300603</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>30006</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H92" s="12" t="s">
+      <c r="G92" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H92" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C93" s="11">
+    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="9">
         <v>300604</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>30006</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H93" s="12" t="s">
+      <c r="G93" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C94" s="11">
+    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="9">
         <v>300605</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>30006</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G94" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H94" s="12" t="s">
+      <c r="H94" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C95" s="11">
+    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="9">
         <v>400101</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>40001</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G95" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H95" s="12" t="s">
+      <c r="G95" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H95" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C96" s="11">
+    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="9">
         <v>400102</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>40001</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G96" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H96" s="12" t="s">
+      <c r="G96" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H96" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C97" s="11">
+    <row r="97" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="9">
         <v>400103</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>40001</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H97" s="12" t="s">
+      <c r="G97" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H97" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C98" s="11">
+    <row r="98" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="9">
         <v>400104</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>40001</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G98" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H98" s="12" t="s">
+      <c r="G98" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H98" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C99" s="11">
+    <row r="99" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="9">
         <v>400105</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>40001</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H99" s="12" t="s">
+      <c r="G99" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H99" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C100" s="11">
+    <row r="100" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="9">
         <v>400201</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="9">
         <v>40002</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H100" s="12" t="s">
+      <c r="G100" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H100" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C101" s="11">
+    <row r="101" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="9">
         <v>400202</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="9">
         <v>40002</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G101" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H101" s="12" t="s">
+      <c r="G101" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H101" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C102" s="11">
+    <row r="102" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="9">
         <v>400203</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="9">
         <v>40002</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G102" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C103" s="11">
+    <row r="103" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="9">
         <v>400204</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="9">
         <v>40002</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G103" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H103" s="12" t="s">
+      <c r="G103" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H103" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C104" s="11">
+    <row r="104" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="9">
         <v>400301</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="9">
         <v>40003</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G104" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H104" s="12" t="s">
+      <c r="G104" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H104" s="10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C105" s="11">
+    <row r="105" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="9">
         <v>400302</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="9">
         <v>40003</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G105" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H105" s="12" t="s">
+      <c r="G105" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H105" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C106" s="11">
+    <row r="106" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="9">
         <v>400303</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="9">
         <v>40003</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H106" s="12" t="s">
+      <c r="G106" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H106" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C107" s="11">
+    <row r="107" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="9">
         <v>400304</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="9">
         <v>40003</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G107" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H107" s="12" t="s">
+      <c r="G107" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H107" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C108" s="11">
+    <row r="108" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="9">
         <v>400305</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="9">
         <v>40003</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="15" t="s">
+      <c r="G108" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="H108" s="12" t="s">
+      <c r="H108" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C109" s="11">
+    <row r="109" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="9">
         <v>400401</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="9">
         <v>40004</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G109" s="15" t="s">
+      <c r="G109" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H109" s="12" t="s">
+      <c r="H109" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C110" s="11">
+    <row r="110" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="9">
         <v>400402</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="9">
         <v>40004</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H110" s="12" t="s">
+      <c r="G110" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H110" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C111" s="11">
+    <row r="111" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="9">
         <v>400403</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="9">
         <v>40004</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H111" s="12" t="s">
+      <c r="G111" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H111" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C112" s="11">
+    <row r="112" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="9">
         <v>400404</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="9">
         <v>40004</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G112" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H112" s="12" t="s">
+      <c r="G112" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H112" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C113" s="11">
+    <row r="113" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="9">
         <v>400405</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="9">
         <v>40004</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H113" s="12" t="s">
+      <c r="G113" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H113" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C114" s="11">
+    <row r="114" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="9">
         <v>400406</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="9">
         <v>40004</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G114" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H114" s="12" t="s">
+      <c r="G114" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C115" s="11">
+    <row r="115" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="9">
         <v>400501</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="9">
         <v>40005</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G115" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H115" s="12" t="s">
+      <c r="G115" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H115" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C116" s="11">
+    <row r="116" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="9">
         <v>400502</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="9">
         <v>40005</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G116" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H116" s="12" t="s">
+      <c r="G116" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H116" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C117" s="11">
+    <row r="117" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="9">
         <v>400503</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E117" s="16">
+      <c r="E117" s="9">
         <v>40005</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G117" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H117" s="12" t="s">
+      <c r="G117" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C118" s="11">
+    <row r="118" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="9">
         <v>400504</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E118" s="16">
+      <c r="E118" s="9">
         <v>40005</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G118" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H118" s="12" t="s">
+      <c r="G118" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C119" s="11">
+    <row r="119" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="9">
         <v>400601</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E119" s="16">
+      <c r="E119" s="9">
         <v>40006</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G119" s="15" t="s">
+      <c r="G119" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="H119" s="12" t="s">
+      <c r="H119" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C120" s="11">
+    <row r="120" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="9">
         <v>400602</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="9">
         <v>40006</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G120" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H120" s="12" t="s">
+      <c r="G120" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H120" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C121" s="11">
+    <row r="121" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="9">
         <v>400603</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="9">
         <v>40006</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G121" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H121" s="12" t="s">
+      <c r="G121" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C122" s="11">
+    <row r="122" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="9">
         <v>400701</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E122" s="16">
+      <c r="E122" s="9">
         <v>40007</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G122" s="15" t="s">
+      <c r="G122" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="H122" s="12" t="s">
+      <c r="H122" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C123" s="11">
+    <row r="123" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="9">
         <v>400702</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E123" s="16">
+      <c r="E123" s="9">
         <v>40007</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G123" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H123" s="12" t="s">
+      <c r="G123" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C124" s="11">
+    <row r="124" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="9">
         <v>400703</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="9">
         <v>40007</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G124" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H124" s="12" t="s">
+      <c r="G124" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H124" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C125" s="11">
+    <row r="125" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="9">
         <v>500101</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E125" s="16">
+      <c r="E125" s="9">
         <v>50001</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H125" s="12" t="s">
+      <c r="G125" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C126" s="11">
+    <row r="126" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="9">
         <v>500102</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E126" s="16">
+      <c r="E126" s="9">
         <v>50001</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H126" s="12" t="s">
+      <c r="G126" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H126" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C127" s="11">
+    <row r="127" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C127" s="9">
         <v>500103</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="9">
         <v>50001</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G127" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H127" s="12" t="s">
+      <c r="G127" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H127" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C128" s="11">
+    <row r="128" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="9">
         <v>500104</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="9">
         <v>50001</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G128" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H128" s="12" t="s">
+      <c r="G128" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H128" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C129" s="11">
+    <row r="129" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C129" s="9">
         <v>500201</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E129" s="16">
+      <c r="E129" s="9">
         <v>50002</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G129" s="15" t="s">
+      <c r="G129" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H129" s="12" t="s">
+      <c r="H129" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C130" s="11">
+    <row r="130" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C130" s="9">
         <v>500202</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E130" s="16">
+      <c r="E130" s="9">
         <v>50002</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H130" s="12" t="s">
+      <c r="G130" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C131" s="11">
+    <row r="131" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C131" s="9">
         <v>500203</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="9">
         <v>50002</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G131" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H131" s="12" t="s">
+      <c r="G131" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C132" s="11">
+    <row r="132" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C132" s="9">
         <v>500204</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="9">
         <v>50002</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G132" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H132" s="12" t="s">
+      <c r="G132" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C133" s="11">
+    <row r="133" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C133" s="9">
         <v>500205</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="9">
         <v>50002</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G133" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H133" s="12" t="s">
+      <c r="G133" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C134" s="11">
+    <row r="134" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C134" s="9">
         <v>500301</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="9">
         <v>50003</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G134" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H134" s="12" t="s">
+      <c r="G134" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C135" s="11">
+    <row r="135" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C135" s="9">
         <v>500302</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="9">
         <v>50003</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G135" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H135" s="12" t="s">
+      <c r="G135" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H135" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C136" s="11">
+    <row r="136" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C136" s="9">
         <v>500303</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="9">
         <v>50003</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G136" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H136" s="12" t="s">
+      <c r="G136" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H136" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C137" s="11">
+    <row r="137" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C137" s="9">
         <v>500304</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E137" s="16">
+      <c r="E137" s="9">
         <v>50003</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G137" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H137" s="12" t="s">
+      <c r="G137" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H137" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C138" s="11">
+    <row r="138" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C138" s="9">
         <v>500401</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="9">
         <v>50004</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G138" s="15" t="s">
+      <c r="G138" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H138" s="12" t="s">
+      <c r="H138" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C139" s="11">
+    <row r="139" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C139" s="9">
         <v>500601</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E139" s="16">
+      <c r="E139" s="9">
         <v>50006</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G139" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H139" s="12" t="s">
+      <c r="G139" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C140" s="11">
+    <row r="140" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C140" s="9">
         <v>500602</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E140" s="16">
+      <c r="E140" s="9">
         <v>50006</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G140" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H140" s="12" t="s">
+      <c r="G140" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H140" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C141" s="11">
+    <row r="141" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C141" s="9">
         <v>500701</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E141" s="16">
+      <c r="E141" s="9">
         <v>50007</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G141" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H141" s="12" t="s">
+      <c r="G141" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" s="10" t="s">
         <v>131</v>
       </c>
     </row>
+    <row r="142" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="3:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
